--- a/CAPS/CAPS Project Solutions/MetaData Tables/Fuel Type.xlsx
+++ b/CAPS/CAPS Project Solutions/MetaData Tables/Fuel Type.xlsx
@@ -37,14 +37,7 @@
     <x:xf numFmtId="49"/>
     <x:xf numFmtId="22" applyNumberFormat="1"/>
     <x:xf numFmtId="49"/>
-    <x:xf numFmtId="49"/>
-    <x:xf numFmtId="49"/>
-    <x:xf numFmtId="22" applyNumberFormat="1"/>
-    <x:xf numFmtId="49"/>
-    <x:xf numFmtId="49"/>
-    <x:xf numFmtId="22" applyNumberFormat="1"/>
     <x:xf numFmtId="0"/>
-    <x:xf numFmtId="14" applyNumberFormat="1"/>
     <x:xf numFmtId="49"/>
     <x:xf numFmtId="49"/>
     <x:xf numFmtId="164" applyNumberFormat="1"/>
@@ -53,24 +46,17 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0">
-  <x:autoFilter ref="A1:O8"/>
-  <x:tableColumns count="15">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0">
+  <x:autoFilter ref="A1:H8"/>
+  <x:tableColumns count="8">
     <x:tableColumn id="1" name="(Do Not Modify) Fuel Type"/>
     <x:tableColumn id="2" name="(Do Not Modify) Row Checksum"/>
     <x:tableColumn id="3" name="(Do Not Modify) Modified On"/>
     <x:tableColumn id="4" name="Type"/>
-    <x:tableColumn id="5" name="Created By"/>
-    <x:tableColumn id="6" name="Created By (Delegate)"/>
-    <x:tableColumn id="7" name="Created On"/>
-    <x:tableColumn id="8" name="Modified By"/>
-    <x:tableColumn id="9" name="Modified By (Delegate)"/>
-    <x:tableColumn id="10" name="Modified On"/>
-    <x:tableColumn id="11" name="Owner"/>
-    <x:tableColumn id="12" name="Record Created On"/>
-    <x:tableColumn id="13" name="Status"/>
-    <x:tableColumn id="14" name="Status Reason"/>
-    <x:tableColumn id="15" name="TCO2e"/>
+    <x:tableColumn id="5" name="Owner"/>
+    <x:tableColumn id="6" name="Status"/>
+    <x:tableColumn id="7" name="Status Reason"/>
+    <x:tableColumn id="8" name="TCO2e"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -82,7 +68,7 @@
   <x:sheetData>
     <x:row>
       <x:c r="A1" t="str">
-        <x:v>caps_fueltype:3bKWPXbl1K48oeo5aLy+uxCLz/xXdtT2oDl+FdhawrA6TroDMbG2fiTUJ+5voAg5Vlj3R4zazPdTttqxyZHLjw==:caps_fueltypeid=%28Do%20Not%20Modify%29%20Fuel%20Type&amp;checksumLogicalName=%28Do%20Not%20Modify%29%20Row%20Checksum&amp;modifiedon=%28Do%20Not%20Modify%29%20Modified%20On&amp;caps_type=Type&amp;createdby=Created%20By&amp;createdonbehalfby=Created%20By%20%28Delegate%29&amp;createdon=Created%20On&amp;modifiedby=Modified%20By&amp;modifiedonbehalfby=Modified%20By%20%28Delegate%29&amp;modifiedon=Modified%20On&amp;ownerid=Owner&amp;overriddencreatedon=Record%20Created%20On&amp;statecode=Status&amp;statuscode=Status%20Reason&amp;caps_tco2e=TCO2e</x:v>
+        <x:v>caps_fueltype:brndHYJg59dk4seFARpa3t+d8mU8Te3RkZFx8KyysZSEkZgDBEmRIGJsIp0GUvbdir3nDkNy2RSoj8xaBlgrLg==:caps_fueltypeid=%28Do%20Not%20Modify%29%20Fuel%20Type&amp;checksumLogicalName=%28Do%20Not%20Modify%29%20Row%20Checksum&amp;modifiedon=%28Do%20Not%20Modify%29%20Modified%20On&amp;caps_type=Type&amp;ownerid=Owner&amp;statecode=Status&amp;statuscode=Status%20Reason&amp;caps_tco2e=TCO2e</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -108,7 +94,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="dataSheet"/>
-  <x:dimension ref="A1:O8"/>
+  <x:dimension ref="A1:H8"/>
   <x:sheetViews>
     <x:sheetView rightToLeft="0" tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -121,13 +107,6 @@
     <x:col min="6" max="6" width="14" style="6" hidden="0" customWidth="1"/>
     <x:col min="7" max="7" width="14" style="7" hidden="0" customWidth="1"/>
     <x:col min="8" max="8" width="14" style="8" hidden="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14" style="9" hidden="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14" style="10" hidden="0" customWidth="1"/>
-    <x:col min="11" max="11" width="14" style="11" hidden="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14" style="12" hidden="0" customWidth="1"/>
-    <x:col min="13" max="13" width="14" style="13" hidden="0" customWidth="1"/>
-    <x:col min="14" max="14" width="14" style="14" hidden="0" customWidth="1"/>
-    <x:col min="15" max="15" width="14" style="15" hidden="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" hidden="0">
@@ -153,55 +132,20 @@
       </x:c>
       <x:c r="E1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Created By</x:t>
+          <x:t xml:space="preserve">Owner</x:t>
         </x:is>
       </x:c>
       <x:c r="F1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Created By (Delegate)</x:t>
+          <x:t xml:space="preserve">Status</x:t>
         </x:is>
       </x:c>
       <x:c r="G1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Created On</x:t>
+          <x:t xml:space="preserve">Status Reason</x:t>
         </x:is>
       </x:c>
       <x:c r="H1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Modified By</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Modified By (Delegate)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Modified On</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="K1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Owner</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Record Created On</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="M1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Status</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Status Reason</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O1" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">TCO2e</x:t>
         </x:is>
@@ -215,7 +159,7 @@
       </x:c>
       <x:c r="B2" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">yNkOJ7sbbeL97wSJ2J8xNoUnMTn2ofXLvYWu41qxlzFkUuQP/MFIiBc9WRyrag9qm48YEsTR0dXDb/NuARgXKg==</x:t>
+          <x:t xml:space="preserve">Hn8iDZkuqMNYRHcsU7l8THNXfzUe2pL7289Z8UkspQOhXV1ZSvRXE+9rjfuClZrg4qh3KqioBN9lWExPi4zIRQ==</x:t>
         </x:is>
       </x:c>
       <x:c r="C2" s="3">
@@ -231,36 +175,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F2" s="6"/>
-      <x:c r="G2" s="7">
-        <x:v>43921.6428935185</x:v>
-      </x:c>
-      <x:c r="H2" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I2" s="9"/>
-      <x:c r="J2" s="10">
-        <x:v>43921.6428935185</x:v>
-      </x:c>
-      <x:c r="K2" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L2" s="12"/>
-      <x:c r="M2" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N2" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O2" s="15" t="n">
+      <x:c r="F2" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G2" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H2" s="8" t="n">
         <x:v>0.0706</x:v>
       </x:c>
     </x:row>
@@ -272,7 +197,7 @@
       </x:c>
       <x:c r="B3" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">p3tM8wCqBJcDF/nIHYnv9VifDrLxk4wvzxGuz7adA6AxtcOic3YojQ4JiO3cehH2y3Sl47AWY3mBuAx4oF5S0Q==</x:t>
+          <x:t xml:space="preserve">4dOn5cwo+8714NZnyHh8Tr04aAhBBzVEKIF4sgqZnRNCacxHH4uWvDvCYkMWh0DcBZAPPS+3CUzZoUondPN0kw==</x:t>
         </x:is>
       </x:c>
       <x:c r="C3" s="3">
@@ -288,36 +213,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F3" s="6"/>
-      <x:c r="G3" s="7">
-        <x:v>43921.6430671296</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I3" s="9"/>
-      <x:c r="J3" s="10">
-        <x:v>43921.6430671296</x:v>
-      </x:c>
-      <x:c r="K3" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L3" s="12"/>
-      <x:c r="M3" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N3" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O3" s="15" t="n">
+      <x:c r="F3" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G3" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H3" s="8" t="n">
         <x:v>0.0652</x:v>
       </x:c>
     </x:row>
@@ -329,7 +235,7 @@
       </x:c>
       <x:c r="B4" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">1WNjGrMfxCmnWJPQ3U/3mENZxZqZIHeTLC97FoadMBakmCndXX39Hwjzj7uQtaOJ8R+2EdvT23sQEVNFrAjT7w==</x:t>
+          <x:t xml:space="preserve">S2lI3hhjUnTz5MN9WM4AJWoley9myGz7Xau8NZaT2SX8JWoTv+0D/c4CDnoKm8Rj0Qr4bM700fwnyTSyEs1Qxw==</x:t>
         </x:is>
       </x:c>
       <x:c r="C4" s="3">
@@ -345,36 +251,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F4" s="6"/>
-      <x:c r="G4" s="7">
-        <x:v>43921.6432060185</x:v>
-      </x:c>
-      <x:c r="H4" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I4" s="9"/>
-      <x:c r="J4" s="10">
-        <x:v>43921.6432060185</x:v>
-      </x:c>
-      <x:c r="K4" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L4" s="12"/>
-      <x:c r="M4" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N4" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O4" s="15" t="n">
+      <x:c r="F4" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G4" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H4" s="8" t="n">
         <x:v>0.0761</x:v>
       </x:c>
     </x:row>
@@ -386,7 +273,7 @@
       </x:c>
       <x:c r="B5" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">dLcm8EET/yZGBN5/ZK7JUM6yrhrJifKDcUt+rLl7femMqhlL9xIGnOIBGc3ASTb5y4FMRmFk9e1AsITsrixH9A==</x:t>
+          <x:t xml:space="preserve">2Lj4kq4qsj7Rieg02U19JiEEZc1yAldoTJE7GrRiWiZ5rnViTFt/YNXfnXA0PX1yk2pEqzhlK5KKed1PUP7iDg==</x:t>
         </x:is>
       </x:c>
       <x:c r="C5" s="3">
@@ -402,36 +289,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F5" s="6"/>
-      <x:c r="G5" s="7">
-        <x:v>43921.6434606481</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I5" s="9"/>
-      <x:c r="J5" s="10">
-        <x:v>43921.6434606481</x:v>
-      </x:c>
-      <x:c r="K5" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L5" s="12"/>
-      <x:c r="M5" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N5" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O5" s="15" t="n">
+      <x:c r="F5" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G5" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H5" s="8" t="n">
         <x:v>0.0499</x:v>
       </x:c>
     </x:row>
@@ -443,7 +311,7 @@
       </x:c>
       <x:c r="B6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">t02xkSy3dSoJmhSgzIVWLIc3sCNHJ0Zinf1WCpkm+MRLSWKwmXzHaodx0UX/jv9V3Ihjw2X4auDGjuZBfNtw0g==</x:t>
+          <x:t xml:space="preserve">cdG69MT/bq7xiBdK9M/jAqs3utfNcQMIiJUXilfqa3BKjnFDUZn1fd8U0ahc+jTjQ7WdxdSST0oFCcCsgID8Nw==</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" s="3">
@@ -459,36 +327,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F6" s="6"/>
-      <x:c r="G6" s="7">
-        <x:v>43921.6436689815</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I6" s="9"/>
-      <x:c r="J6" s="10">
-        <x:v>43921.6436689815</x:v>
-      </x:c>
-      <x:c r="K6" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L6" s="12"/>
-      <x:c r="M6" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N6" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O6" s="15" t="n">
+      <x:c r="F6" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G6" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H6" s="8" t="n">
         <x:v>0.0612</x:v>
       </x:c>
     </x:row>
@@ -500,7 +349,7 @@
       </x:c>
       <x:c r="B7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RdYeVbj1u6kPXvJOv1WIoM2cRuyToLnhZ1yKhL+zvH6XhQg03pu0pgocc5O7Vd5LZTYrNpt0itiJOk/g62SnQA==</x:t>
+          <x:t xml:space="preserve">ADVNYhtx2T7ATMpfdSIXarlwYFjx0dIkfN0u9E2i5dAr9iZpmveqDy7+JF6NJoLj4/vQOLv8jPjTWOCu35J2rA==</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" s="3">
@@ -516,36 +365,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F7" s="6"/>
-      <x:c r="G7" s="7">
-        <x:v>43921.6439236111</x:v>
-      </x:c>
-      <x:c r="H7" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I7" s="9"/>
-      <x:c r="J7" s="10">
-        <x:v>43921.6439236111</x:v>
-      </x:c>
-      <x:c r="K7" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L7" s="12"/>
-      <x:c r="M7" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N7" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O7" s="15" t="n">
+      <x:c r="F7" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G7" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H7" s="8" t="n">
         <x:v>0.0022</x:v>
       </x:c>
     </x:row>
@@ -557,7 +387,7 @@
       </x:c>
       <x:c r="B8" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">/Nt5E11bu4gI6zSiG4iU2pRtl8khOFp/Qa+3HAWVDBnvX9baaqG/RRMiWOfu+k5FkevJRd0DYOR5mTinlXRhCQ==</x:t>
+          <x:t xml:space="preserve">bBvUsPGojPm/vaglt4Yy5fPqUSVkfwxN6UpzaEWmgIQCpEZcLdUSagX1gFelzxROlCLDUgE+dUfAjuJVpAf2Qg==</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" s="3">
@@ -573,36 +403,17 @@
           <x:t xml:space="preserve">Albus Dumbledore</x:t>
         </x:is>
       </x:c>
-      <x:c r="F8" s="6"/>
-      <x:c r="G8" s="7">
-        <x:v>43921.6441435185</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="I8" s="9"/>
-      <x:c r="J8" s="10">
-        <x:v>43921.6441435185</x:v>
-      </x:c>
-      <x:c r="K8" s="11" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Albus Dumbledore</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="L8" s="12"/>
-      <x:c r="M8" s="13" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="N8" s="14" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Active</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="O8" s="15" t="n">
+      <x:c r="F8" s="6" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G8" s="7" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Active</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H8" s="8" t="n">
         <x:v>0.0235</x:v>
       </x:c>
     </x:row>
@@ -614,27 +425,14 @@
     <x:dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="0" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 100 characters long." promptTitle="Text (required)" prompt="Maximum Length: 100 characters." sqref="D2:D1048576">
       <x:formula1>100</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="none" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup" prompt="This Created By record must already exist in Microsoft Dynamics 365 or in this source file." sqref="E2:E1048576"/>
-    <x:dataValidation type="none" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup" prompt="This Created By (Delegate) record must already exist in Microsoft Dynamics 365 or in this source file." sqref="F2:F1048576"/>
-    <x:dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Created On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="G2:G1048576">
-      <x:formula1>1</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="none" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup" prompt="This Modified By record must already exist in Microsoft Dynamics 365 or in this source file." sqref="H2:H1048576"/>
-    <x:dataValidation type="none" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup" prompt="This Modified By (Delegate) record must already exist in Microsoft Dynamics 365 or in this source file." sqref="I2:I1048576"/>
-    <x:dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="J2:J1048576">
-      <x:formula1>1</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="none" allowBlank="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup (required)" prompt="This Owner record must already exist in Microsoft Dynamics 365 or in this source file." sqref="K2:K1048576"/>
-    <x:dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Record Created On must be in the correct date format." promptTitle="Date" prompt=" " sqref="L2:L1048576">
-      <x:formula1>1</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Status must be selected from the drop-down list." promptTitle="Option set (required)" prompt="Select a value from the drop-down list." sqref="M2:M1048576">
+    <x:dataValidation type="none" allowBlank="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error=" " promptTitle="Lookup (required)" prompt="This Owner record must already exist in Microsoft Dynamics 365 or in this source file." sqref="E2:E1048576"/>
+    <x:dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Status must be selected from the drop-down list." promptTitle="Option set (required)" prompt="Select a value from the drop-down list." sqref="F2:F1048576">
       <x:formula1>hiddenSheet!$A$2:$B$2</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Status Reason must be selected from the drop-down list." promptTitle="Option set" prompt="Select a value from the drop-down list." sqref="N2:N1048576">
+    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Status Reason must be selected from the drop-down list." promptTitle="Option set" prompt="Select a value from the drop-down list." sqref="G2:G1048576">
       <x:formula1>hiddenSheet!$A$3:$B$3</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value beyond range" error="TCO2e must be a number from 0 through 100." promptTitle="Decimal number" prompt="Minimum Value: 0.&#13;&#10;Maximum Value: 100.&#13;&#10;  " sqref="O2:O1048576">
+    <x:dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value beyond range" error="TCO2e must be a number from 0 through 100." promptTitle="Decimal number" prompt="Minimum Value: 0.&#13;&#10;Maximum Value: 100.&#13;&#10;  " sqref="H2:H1048576">
       <x:formula1>0</x:formula1>
       <x:formula2>100</x:formula2>
     </x:dataValidation>
